--- a/data/trans_orig/Q5411-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/Q5411-Estudios-trans_orig.xlsx
@@ -744,19 +744,19 @@
         <v>25668</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>17502</v>
+        <v>17097</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>35611</v>
+        <v>36190</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.06877938944046563</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.04689894012588611</v>
+        <v>0.04581252674492738</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.095424432441537</v>
+        <v>0.09697568047690779</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>53</v>
@@ -765,19 +765,19 @@
         <v>58222</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>44601</v>
+        <v>44736</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>73446</v>
+        <v>75190</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.09905953006632691</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.07588399839792336</v>
+        <v>0.07611427631716737</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.1249616174393722</v>
+        <v>0.1279284394306677</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>81</v>
@@ -786,19 +786,19 @@
         <v>83890</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>66055</v>
+        <v>67852</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>102674</v>
+        <v>103147</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.08729996843102579</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.06874022873888516</v>
+        <v>0.07060974514040601</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.1068474075868733</v>
+        <v>0.1073397046562788</v>
       </c>
     </row>
     <row r="5">
@@ -815,19 +815,19 @@
         <v>347521</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>337578</v>
+        <v>336999</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>355687</v>
+        <v>356092</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9312206105595344</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9045755675584629</v>
+        <v>0.9030243195230923</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9531010598741139</v>
+        <v>0.9541874732550727</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>521</v>
@@ -836,19 +836,19 @@
         <v>529527</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>514303</v>
+        <v>512559</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>543148</v>
+        <v>543013</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.900940469933673</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.8750383825606278</v>
+        <v>0.8720715605693318</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9241160016020771</v>
+        <v>0.9238857236828326</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>892</v>
@@ -857,19 +857,19 @@
         <v>877048</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>858264</v>
+        <v>857791</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>894883</v>
+        <v>893086</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9127000315689742</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.8931525924131266</v>
+        <v>0.8926602953437213</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9312597712611149</v>
+        <v>0.9293902548595941</v>
       </c>
     </row>
     <row r="6">
@@ -964,7 +964,7 @@
         <v>0</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>3984</v>
+        <v>4165</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.009190302935488504</v>
@@ -973,7 +973,7 @@
         <v>0</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.04523431332297569</v>
+        <v>0.04728835225732087</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>5</v>
@@ -982,19 +982,19 @@
         <v>5449</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>2096</v>
+        <v>1982</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>11743</v>
+        <v>11325</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.08758304630285857</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.03368543658382542</v>
+        <v>0.03185618232999683</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.188760857145073</v>
+        <v>0.1820462639112066</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>6</v>
@@ -1003,19 +1003,19 @@
         <v>6258</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>2293</v>
+        <v>2940</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>12824</v>
+        <v>13757</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.04163960090169407</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.01525995059488808</v>
+        <v>0.01955965037139103</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.08532318900362802</v>
+        <v>0.09153403603078875</v>
       </c>
     </row>
     <row r="8">
@@ -1032,7 +1032,7 @@
         <v>87273</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>84099</v>
+        <v>83918</v>
       </c>
       <c r="F8" s="5" t="n">
         <v>88083</v>
@@ -1041,7 +1041,7 @@
         <v>0.9908096970645115</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9547656866770243</v>
+        <v>0.9527116477426791</v>
       </c>
       <c r="I8" s="6" t="n">
         <v>1</v>
@@ -1053,19 +1053,19 @@
         <v>56763</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>50469</v>
+        <v>50887</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>60116</v>
+        <v>60230</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9124169536971414</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.811239142854927</v>
+        <v>0.8179537360887934</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9663145634161746</v>
+        <v>0.9681438176700032</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>143</v>
@@ -1074,19 +1074,19 @@
         <v>144037</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>137471</v>
+        <v>136538</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>148002</v>
+        <v>147355</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9583603990983059</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.914676810996372</v>
+        <v>0.9084659639692112</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.984740049405112</v>
+        <v>0.9804403496286089</v>
       </c>
     </row>
     <row r="9">
@@ -1181,7 +1181,7 @@
         <v>0</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>8383</v>
+        <v>6260</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.03529703754989125</v>
@@ -1190,7 +1190,7 @@
         <v>0</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.2034904266051896</v>
+        <v>0.1519741386368814</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>1</v>
@@ -1202,7 +1202,7 @@
         <v>0</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>6689</v>
+        <v>5955</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.04318515409034161</v>
@@ -1211,7 +1211,7 @@
         <v>0</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.2488369293018284</v>
+        <v>0.22153156145821</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>2</v>
@@ -1223,7 +1223,7 @@
         <v>0</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>8297</v>
+        <v>7527</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.03841181499677378</v>
@@ -1232,7 +1232,7 @@
         <v>0</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.1218867300067792</v>
+        <v>0.1105761825736892</v>
       </c>
     </row>
     <row r="11">
@@ -1249,7 +1249,7 @@
         <v>39740</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>32811</v>
+        <v>34934</v>
       </c>
       <c r="F11" s="5" t="n">
         <v>41194</v>
@@ -1258,7 +1258,7 @@
         <v>0.9647029624501088</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.7965095733948128</v>
+        <v>0.8480258613631185</v>
       </c>
       <c r="I11" s="6" t="n">
         <v>1</v>
@@ -1270,7 +1270,7 @@
         <v>25720</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>20192</v>
+        <v>20926</v>
       </c>
       <c r="M11" s="5" t="n">
         <v>26881</v>
@@ -1279,7 +1279,7 @@
         <v>0.9568148459096584</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.7511630706981738</v>
+        <v>0.7784684385417928</v>
       </c>
       <c r="P11" s="6" t="n">
         <v>1</v>
@@ -1291,7 +1291,7 @@
         <v>65460</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>59778</v>
+        <v>60548</v>
       </c>
       <c r="T11" s="5" t="n">
         <v>68075</v>
@@ -1300,7 +1300,7 @@
         <v>0.9615881850032262</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.878113269993221</v>
+        <v>0.8894238174263116</v>
       </c>
       <c r="W11" s="6" t="n">
         <v>1</v>
@@ -1395,19 +1395,19 @@
         <v>27931</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>19530</v>
+        <v>20771</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>39046</v>
+        <v>39294</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.0555883392534751</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.03886796964585754</v>
+        <v>0.04133816264855964</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.07770823723440244</v>
+        <v>0.07820261994036987</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>59</v>
@@ -1416,19 +1416,19 @@
         <v>64832</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>50093</v>
+        <v>49473</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>82171</v>
+        <v>82329</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.09578562540648962</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.0740095996793603</v>
+        <v>0.07309396344795066</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1214041902790307</v>
+        <v>0.1216372916765228</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>89</v>
@@ -1437,19 +1437,19 @@
         <v>92763</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>76038</v>
+        <v>73744</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>115124</v>
+        <v>110795</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.07865882753380772</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.06447693487442044</v>
+        <v>0.06253138657991597</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.09762005563941829</v>
+        <v>0.09394901740388777</v>
       </c>
     </row>
     <row r="14">
@@ -1466,19 +1466,19 @@
         <v>474535</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>463420</v>
+        <v>463172</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>482936</v>
+        <v>481695</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9444116607465249</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9222917627655975</v>
+        <v>0.92179738005963</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9611320303541424</v>
+        <v>0.9586618373514403</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>602</v>
@@ -1487,19 +1487,19 @@
         <v>612010</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>594671</v>
+        <v>594513</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>626749</v>
+        <v>627369</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9042143745935104</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.8785958097209692</v>
+        <v>0.8783627083234772</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9259904003206396</v>
+        <v>0.9269060365520493</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1095</v>
@@ -1508,19 +1508,19 @@
         <v>1086545</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1064184</v>
+        <v>1068513</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1103270</v>
+        <v>1105564</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9213411724661923</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9023799443605817</v>
+        <v>0.9060509825961123</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9355230651255796</v>
+        <v>0.937468613420084</v>
       </c>
     </row>
     <row r="15">
@@ -1851,19 +1851,19 @@
         <v>54347</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>41006</v>
+        <v>41101</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>70158</v>
+        <v>69667</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.131147458034794</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.09895372678455606</v>
+        <v>0.09918297858570088</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.1693002793247722</v>
+        <v>0.1681165699124735</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>136</v>
@@ -1872,19 +1872,19 @@
         <v>149069</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>126679</v>
+        <v>127579</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>171623</v>
+        <v>170186</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.2349222045578788</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.1996377713302375</v>
+        <v>0.201055340547372</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.2704656041903822</v>
+        <v>0.268201302446509</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>182</v>
@@ -1893,19 +1893,19 @@
         <v>203416</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>177464</v>
+        <v>178090</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>231249</v>
+        <v>232154</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.1939246982765258</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.1691838251293</v>
+        <v>0.1697804696497243</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.2204589843275866</v>
+        <v>0.2213221390092691</v>
       </c>
     </row>
     <row r="5">
@@ -1922,19 +1922,19 @@
         <v>360051</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>344240</v>
+        <v>344731</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>373392</v>
+        <v>373297</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.868852541965206</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.830699720675228</v>
+        <v>0.8318834300875264</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9010462732154439</v>
+        <v>0.900817021414299</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>460</v>
@@ -1943,19 +1943,19 @@
         <v>485476</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>462922</v>
+        <v>464359</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>507866</v>
+        <v>506966</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.7650777954421212</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.7295343958096178</v>
+        <v>0.731798697553491</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.8003622286697627</v>
+        <v>0.798944659452628</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>792</v>
@@ -1964,19 +1964,19 @@
         <v>845526</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>817693</v>
+        <v>816788</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>871478</v>
+        <v>870852</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.8060753017234742</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.7795410156724132</v>
+        <v>0.7786778609907308</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.8308161748706995</v>
+        <v>0.8302195303502756</v>
       </c>
     </row>
     <row r="6">
@@ -2068,19 +2068,19 @@
         <v>6123</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>2923</v>
+        <v>2127</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>13788</v>
+        <v>12606</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.05160222088135852</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.02463070260288935</v>
+        <v>0.01792182833928386</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.1161930002573707</v>
+        <v>0.1062327985014433</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>7</v>
@@ -2089,19 +2089,19 @@
         <v>7589</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>3204</v>
+        <v>3178</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>14583</v>
+        <v>14074</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.09135160795113371</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.03856813648754966</v>
+        <v>0.03825799608075106</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.1755402168726764</v>
+        <v>0.169409674704286</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>13</v>
@@ -2110,19 +2110,19 @@
         <v>13712</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>7157</v>
+        <v>7887</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>21913</v>
+        <v>23286</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.06797066992400515</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.0354762761395721</v>
+        <v>0.03909371710069333</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.1086227808636922</v>
+        <v>0.1154244014225797</v>
       </c>
     </row>
     <row r="8">
@@ -2139,19 +2139,19 @@
         <v>112542</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>104877</v>
+        <v>106059</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>115742</v>
+        <v>116538</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9483977791186414</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.8838069997426292</v>
+        <v>0.8937672014985564</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9753692973971106</v>
+        <v>0.9820781716607161</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>70</v>
@@ -2160,19 +2160,19 @@
         <v>75485</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>68491</v>
+        <v>69000</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>79870</v>
+        <v>79896</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9086483920488663</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.8244597831273234</v>
+        <v>0.830590325295714</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9614318635124502</v>
+        <v>0.9617420039192486</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>169</v>
@@ -2181,19 +2181,19 @@
         <v>188027</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>179826</v>
+        <v>178453</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>194582</v>
+        <v>193852</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9320293300759949</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.8913772191363081</v>
+        <v>0.8845755985774193</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9645237238604281</v>
+        <v>0.9609062828993066</v>
       </c>
     </row>
     <row r="9">
@@ -2288,7 +2288,7 @@
         <v>0</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>4419</v>
+        <v>4456</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.03708751132104731</v>
@@ -2297,7 +2297,7 @@
         <v>0</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.1662853831390793</v>
+        <v>0.1676611282234833</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>3</v>
@@ -2306,19 +2306,19 @@
         <v>3315</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>968</v>
+        <v>1000</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>8015</v>
+        <v>8145</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.1489954815624129</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.04350604454880208</v>
+        <v>0.04494968908933143</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.3603101526877457</v>
+        <v>0.3661207559904662</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>4</v>
@@ -2327,19 +2327,19 @@
         <v>4300</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>1065</v>
+        <v>1113</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>9847</v>
+        <v>10416</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.08808039865375146</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.02180544985399555</v>
+        <v>0.02278942937981336</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.201700486624488</v>
+        <v>0.2133461640407375</v>
       </c>
     </row>
     <row r="11">
@@ -2356,7 +2356,7 @@
         <v>25589</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>22156</v>
+        <v>22119</v>
       </c>
       <c r="F11" s="5" t="n">
         <v>26575</v>
@@ -2365,7 +2365,7 @@
         <v>0.9629124886789527</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.833714616860921</v>
+        <v>0.8323388717765167</v>
       </c>
       <c r="I11" s="6" t="n">
         <v>1</v>
@@ -2377,19 +2377,19 @@
         <v>18931</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>14231</v>
+        <v>14101</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>21278</v>
+        <v>21246</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.8510045184375872</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.6396898473122546</v>
+        <v>0.6338792440095338</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9564939554511979</v>
+        <v>0.9550503109106687</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>35</v>
@@ -2398,19 +2398,19 @@
         <v>44521</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>38974</v>
+        <v>38405</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>47756</v>
+        <v>47708</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9119196013462485</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.7982995133755121</v>
+        <v>0.7866538359592635</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9781945501460044</v>
+        <v>0.9772105706201866</v>
       </c>
     </row>
     <row r="12">
@@ -2502,19 +2502,19 @@
         <v>61456</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>47343</v>
+        <v>46468</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>78238</v>
+        <v>78774</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.1098143124118763</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.08459532589505496</v>
+        <v>0.08303290123879449</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.1398022012955537</v>
+        <v>0.1407599269943047</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>146</v>
@@ -2523,19 +2523,19 @@
         <v>159972</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>133439</v>
+        <v>138292</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>182240</v>
+        <v>185201</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.2162180271597212</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.1803556960598332</v>
+        <v>0.1869155781591954</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.246315668513252</v>
+        <v>0.2503175349880126</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>199</v>
@@ -2544,19 +2544,19 @@
         <v>221428</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>196357</v>
+        <v>192649</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>252258</v>
+        <v>249364</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.17039473469489</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.1511017950109525</v>
+        <v>0.148248576624851</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1941192391693305</v>
+        <v>0.1918916250397422</v>
       </c>
     </row>
     <row r="14">
@@ -2573,19 +2573,19 @@
         <v>498181</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>481399</v>
+        <v>480863</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>512294</v>
+        <v>513169</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.8901856875881238</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.8601977987044463</v>
+        <v>0.8592400730056953</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.915404674104945</v>
+        <v>0.9169670987612046</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>545</v>
@@ -2594,19 +2594,19 @@
         <v>579893</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>557625</v>
+        <v>554664</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>606426</v>
+        <v>601573</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.7837819728402787</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.7536843314867483</v>
+        <v>0.7496824650119877</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.8196443039401673</v>
+        <v>0.8130844218408046</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>996</v>
@@ -2615,19 +2615,19 @@
         <v>1078074</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1047244</v>
+        <v>1050138</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1103145</v>
+        <v>1106853</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.8296052653051099</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.8058807608306695</v>
+        <v>0.8081083749602578</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.8488982049890474</v>
+        <v>0.8517514233751491</v>
       </c>
     </row>
     <row r="15">
@@ -2958,19 +2958,19 @@
         <v>38204</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>28167</v>
+        <v>27669</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>48853</v>
+        <v>50253</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.1079520375149103</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.07958990673371702</v>
+        <v>0.07818280042165686</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.1380416112553655</v>
+        <v>0.1419986200550699</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>68</v>
@@ -2979,19 +2979,19 @@
         <v>86161</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>67786</v>
+        <v>69410</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>106580</v>
+        <v>105911</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.1553122524586334</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.1221911179931774</v>
+        <v>0.1251175509478547</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.1921203197656427</v>
+        <v>0.1909145942282231</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>111</v>
@@ -3000,19 +3000,19 @@
         <v>124365</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>104585</v>
+        <v>103809</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>146528</v>
+        <v>146646</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.1368665402601699</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.1150982588327489</v>
+        <v>0.1142440771979851</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.161257717459829</v>
+        <v>0.1613878894505158</v>
       </c>
     </row>
     <row r="5">
@@ -3029,19 +3029,19 @@
         <v>315697</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>305048</v>
+        <v>303648</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>325734</v>
+        <v>326232</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.8920479624850897</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.8619583887446345</v>
+        <v>0.8580013799449301</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.920410093266283</v>
+        <v>0.9218171995783432</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>403</v>
@@ -3050,19 +3050,19 @@
         <v>468596</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>448177</v>
+        <v>448846</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>486971</v>
+        <v>485347</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.8446877475413666</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.8078796802343574</v>
+        <v>0.8090854057717769</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.8778088820068227</v>
+        <v>0.8748824490521452</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>746</v>
@@ -3071,19 +3071,19 @@
         <v>784293</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>762130</v>
+        <v>762012</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>804073</v>
+        <v>804849</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.8631334597398301</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.838742282540171</v>
+        <v>0.838612110549484</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.8849017411672512</v>
+        <v>0.8857559228020148</v>
       </c>
     </row>
     <row r="6">
@@ -3175,19 +3175,19 @@
         <v>8078</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>3532</v>
+        <v>4273</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>14261</v>
+        <v>14715</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.04195679930085018</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.01834291067332708</v>
+        <v>0.02219386856231028</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.07406918791308559</v>
+        <v>0.07643122693193974</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>11</v>
@@ -3196,19 +3196,19 @@
         <v>15150</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>7493</v>
+        <v>7866</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>26602</v>
+        <v>26010</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.08055307713539832</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.03984195226153914</v>
+        <v>0.04182448945175878</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.141442528916507</v>
+        <v>0.1382966236287175</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>20</v>
@@ -3217,19 +3217,19 @@
         <v>23228</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>15134</v>
+        <v>14824</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>35126</v>
+        <v>35779</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.06102890141853376</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.03976358463491596</v>
+        <v>0.03894813546786331</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.09229048437721736</v>
+        <v>0.09400599408362087</v>
       </c>
     </row>
     <row r="8">
@@ -3246,19 +3246,19 @@
         <v>184454</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>178271</v>
+        <v>177817</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>189000</v>
+        <v>188259</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9580432006991498</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9259308120869144</v>
+        <v>0.9235687730680606</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9816570893266732</v>
+        <v>0.9778061314376898</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>146</v>
@@ -3267,19 +3267,19 @@
         <v>172924</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>161472</v>
+        <v>162064</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>180581</v>
+        <v>180208</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9194469228646017</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.8585574710834923</v>
+        <v>0.8617033763712825</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9601580477384607</v>
+        <v>0.9581755105482411</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>334</v>
@@ -3288,19 +3288,19 @@
         <v>357378</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>345480</v>
+        <v>344827</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>365472</v>
+        <v>365782</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9389710985814662</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9077095156227826</v>
+        <v>0.9059940059163791</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9602364153650839</v>
+        <v>0.9610518645321366</v>
       </c>
     </row>
     <row r="9">
@@ -3395,7 +3395,7 @@
         <v>0</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>6553</v>
+        <v>7463</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.03740797777715391</v>
@@ -3404,7 +3404,7 @@
         <v>0</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.1559090507414063</v>
+        <v>0.1775644624743901</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>1</v>
@@ -3416,7 +3416,7 @@
         <v>0</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>7265</v>
+        <v>6865</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.04085587878785221</v>
@@ -3425,7 +3425,7 @@
         <v>0</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.2157572230641128</v>
+        <v>0.2038683198462604</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>2</v>
@@ -3437,7 +3437,7 @@
         <v>0</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>11116</v>
+        <v>9859</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.03894166112874054</v>
@@ -3446,7 +3446,7 @@
         <v>0</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.1468315714054358</v>
+        <v>0.1302288062459633</v>
       </c>
     </row>
     <row r="11">
@@ -3463,7 +3463,7 @@
         <v>40457</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>35476</v>
+        <v>34566</v>
       </c>
       <c r="F11" s="5" t="n">
         <v>42029</v>
@@ -3472,7 +3472,7 @@
         <v>0.9625920222228461</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.844090949258594</v>
+        <v>0.82243553752561</v>
       </c>
       <c r="I11" s="6" t="n">
         <v>1</v>
@@ -3484,7 +3484,7 @@
         <v>32298</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>26409</v>
+        <v>26809</v>
       </c>
       <c r="M11" s="5" t="n">
         <v>33674</v>
@@ -3493,7 +3493,7 @@
         <v>0.9591441212121478</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.7842427769358874</v>
+        <v>0.7961316801537394</v>
       </c>
       <c r="P11" s="6" t="n">
         <v>1</v>
@@ -3505,7 +3505,7 @@
         <v>72755</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>64587</v>
+        <v>65844</v>
       </c>
       <c r="T11" s="5" t="n">
         <v>75703</v>
@@ -3514,7 +3514,7 @@
         <v>0.9610583388712595</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.8531684285945631</v>
+        <v>0.8697711937540354</v>
       </c>
       <c r="W11" s="6" t="n">
         <v>1</v>
@@ -3609,19 +3609,19 @@
         <v>47855</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>35506</v>
+        <v>35497</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>61252</v>
+        <v>61743</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.08132144671799046</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.06033677346548806</v>
+        <v>0.06032175968764875</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.1040873249575056</v>
+        <v>0.1049225956935483</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>80</v>
@@ -3630,19 +3630,19 @@
         <v>102686</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>82544</v>
+        <v>84173</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>124245</v>
+        <v>126863</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.1322416037129182</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.1063022228032621</v>
+        <v>0.108400360893385</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1600051105397937</v>
+        <v>0.1633763336189289</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>133</v>
@@ -3651,19 +3651,19 @@
         <v>150541</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>125089</v>
+        <v>124374</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>174962</v>
+        <v>174494</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.1102889856005206</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.09164267226250174</v>
+        <v>0.09111893923833304</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1281805355165069</v>
+        <v>0.1278375229299344</v>
       </c>
     </row>
     <row r="14">
@@ -3680,19 +3680,19 @@
         <v>540608</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>527211</v>
+        <v>526720</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>552957</v>
+        <v>552966</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9186785532820095</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.8959126750424945</v>
+        <v>0.8950774043064513</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.939663226534512</v>
+        <v>0.9396782403123511</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>574</v>
@@ -3701,19 +3701,19 @@
         <v>673819</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>652260</v>
+        <v>649642</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>693961</v>
+        <v>692332</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.8677583962870818</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.8399948894602063</v>
+        <v>0.8366236663810709</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.8936977771967379</v>
+        <v>0.8915996391066148</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1145</v>
@@ -3722,19 +3722,19 @@
         <v>1214427</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1190006</v>
+        <v>1190474</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1239879</v>
+        <v>1240594</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.8897110143994794</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.8718194644834931</v>
+        <v>0.8721624770700652</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9083573277374982</v>
+        <v>0.9088810607616669</v>
       </c>
     </row>
     <row r="15">
@@ -4065,19 +4065,19 @@
         <v>35593</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>27016</v>
+        <v>25883</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>44554</v>
+        <v>45569</v>
       </c>
       <c r="G4" s="6" t="n">
-        <v>0.1226935815582236</v>
+        <v>0.1226935815582237</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.09312802630125232</v>
+        <v>0.0892237593307479</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.1535853529892098</v>
+        <v>0.1570846286593938</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>210</v>
@@ -4086,19 +4086,19 @@
         <v>109228</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>96329</v>
+        <v>97014</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>124044</v>
+        <v>124419</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.2031190150267368</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.1791323409582017</v>
+        <v>0.1804060542400359</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.2306703724529822</v>
+        <v>0.231366423068972</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>264</v>
@@ -4107,19 +4107,19 @@
         <v>144821</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>127194</v>
+        <v>126827</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>160715</v>
+        <v>161727</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.1749363818563069</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.153643673872522</v>
+        <v>0.153200043199158</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.1941348221714241</v>
+        <v>0.1953575011148358</v>
       </c>
     </row>
     <row r="5">
@@ -4136,19 +4136,19 @@
         <v>254502</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>245541</v>
+        <v>244526</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>263079</v>
+        <v>264212</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.877306418441776</v>
+        <v>0.8773064184417764</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.8464146470107902</v>
+        <v>0.8429153713406061</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9068719736987477</v>
+        <v>0.9107762406692522</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>807</v>
@@ -4157,19 +4157,19 @@
         <v>428528</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>413712</v>
+        <v>413337</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>441427</v>
+        <v>440742</v>
       </c>
       <c r="N5" s="6" t="n">
-        <v>0.796880984973263</v>
+        <v>0.7968809849732631</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.7693296275470177</v>
+        <v>0.7686335769310281</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.8208676590417983</v>
+        <v>0.8195939457599641</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1181</v>
@@ -4178,19 +4178,19 @@
         <v>683030</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>667136</v>
+        <v>666124</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>700657</v>
+        <v>701024</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.825063618143693</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.805865177828576</v>
+        <v>0.8046424988851641</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.8463563261274781</v>
+        <v>0.846799956800842</v>
       </c>
     </row>
     <row r="6">
@@ -4282,19 +4282,19 @@
         <v>13969</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>9221</v>
+        <v>8543</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>21801</v>
+        <v>21249</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>0.04597652139291152</v>
+        <v>0.04597652139291154</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.03034877532473184</v>
+        <v>0.02811831340298296</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.07175615212262364</v>
+        <v>0.06993902183399428</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>35</v>
@@ -4303,19 +4303,19 @@
         <v>18433</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>13429</v>
+        <v>13089</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>25403</v>
+        <v>25709</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.06638901917947072</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.04836710036035807</v>
+        <v>0.04714188129370667</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.09149559511359986</v>
+        <v>0.09259474660937694</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>56</v>
@@ -4324,19 +4324,19 @@
         <v>32401</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>24944</v>
+        <v>23533</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>41795</v>
+        <v>41270</v>
       </c>
       <c r="U7" s="6" t="n">
-        <v>0.0557232580469209</v>
+        <v>0.05572325804692089</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.0428983223745471</v>
+        <v>0.04047171422685637</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.07187836823404521</v>
+        <v>0.07097546791230563</v>
       </c>
     </row>
     <row r="8">
@@ -4353,19 +4353,19 @@
         <v>289856</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>282024</v>
+        <v>282576</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>294604</v>
+        <v>295282</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.9540234786070881</v>
+        <v>0.9540234786070886</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9282438478773766</v>
+        <v>0.9300609781660057</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9696512246752682</v>
+        <v>0.971881686597017</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>494</v>
@@ -4374,19 +4374,19 @@
         <v>259213</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>252243</v>
+        <v>251937</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>264217</v>
+        <v>264557</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9336109808205293</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9085044048864007</v>
+        <v>0.9074052533906229</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9516328996396419</v>
+        <v>0.9528581187062934</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>899</v>
@@ -4395,19 +4395,19 @@
         <v>549070</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>539676</v>
+        <v>540201</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>556527</v>
+        <v>557938</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9442767419530791</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9281216317659546</v>
+        <v>0.9290245320876942</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9571016776254527</v>
+        <v>0.9595282857731435</v>
       </c>
     </row>
     <row r="9">
@@ -4499,19 +4499,19 @@
         <v>3417</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>688</v>
+        <v>702</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>8752</v>
+        <v>10123</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.02874467054339021</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.005785027568329764</v>
+        <v>0.005902213283011982</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.07362384419082167</v>
+        <v>0.08515478873995594</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>3</v>
@@ -4520,19 +4520,19 @@
         <v>1525</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>396</v>
+        <v>403</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>4456</v>
+        <v>4567</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.01840402797066649</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.004775092186961997</v>
+        <v>0.004866848509916193</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.05378362591341859</v>
+        <v>0.05511896392931281</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>7</v>
@@ -4541,19 +4541,19 @@
         <v>4942</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>2128</v>
+        <v>1968</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>11198</v>
+        <v>11048</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.02449765673439912</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.01054782953313228</v>
+        <v>0.009755326837420331</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.05550572863951465</v>
+        <v>0.05476370979515726</v>
       </c>
     </row>
     <row r="11">
@@ -4570,19 +4570,19 @@
         <v>115464</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>110129</v>
+        <v>108758</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>118193</v>
+        <v>118179</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9712553294566099</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9263761558091781</v>
+        <v>0.9148452112600428</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9942149724316702</v>
+        <v>0.994097786716988</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>149</v>
@@ -4591,19 +4591,19 @@
         <v>81330</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>78399</v>
+        <v>78288</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>82459</v>
+        <v>82452</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>0.9815959720293335</v>
+        <v>0.9815959720293336</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9462163740865817</v>
+        <v>0.9448810360706871</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9952249078130379</v>
+        <v>0.9951331514900839</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>313</v>
@@ -4612,19 +4612,19 @@
         <v>196794</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>190538</v>
+        <v>190688</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>199608</v>
+        <v>199768</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9755023432656009</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9444942713604857</v>
+        <v>0.9452362902048411</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9894521704668677</v>
+        <v>0.9902446731625795</v>
       </c>
     </row>
     <row r="12">
@@ -4716,19 +4716,19 @@
         <v>52979</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>42163</v>
+        <v>42684</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>65771</v>
+        <v>67631</v>
       </c>
       <c r="G13" s="6" t="n">
-        <v>0.07432483162309264</v>
+        <v>0.07432483162309263</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.05915117651874822</v>
+        <v>0.05988171802868068</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.09227091079864229</v>
+        <v>0.09487994151343629</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>248</v>
@@ -4737,19 +4737,19 @@
         <v>129186</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>114638</v>
+        <v>115286</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>145456</v>
+        <v>145654</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.1438185043442717</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.127622458198372</v>
+        <v>0.1283442781903785</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1619318755555241</v>
+        <v>0.1621518531867112</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>327</v>
@@ -4758,19 +4758,19 @@
         <v>182165</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>162059</v>
+        <v>162108</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>201101</v>
+        <v>203839</v>
       </c>
       <c r="U13" s="6" t="n">
-        <v>0.1130715268765706</v>
+        <v>0.1130715268765707</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.1005915370563453</v>
+        <v>0.1006222246198442</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1248252414419134</v>
+        <v>0.1265250569374669</v>
       </c>
     </row>
     <row r="14">
@@ -4787,19 +4787,19 @@
         <v>659822</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>647030</v>
+        <v>645170</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>670638</v>
+        <v>670117</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9256751683769073</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9077290892013576</v>
+        <v>0.9051200584865637</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9408488234812518</v>
+        <v>0.9401182819713191</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>1450</v>
@@ -4808,19 +4808,19 @@
         <v>769071</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>752801</v>
+        <v>752603</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>783619</v>
+        <v>782971</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.8561814956557284</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.8380681244444761</v>
+        <v>0.8378481468132889</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.8723775418016281</v>
+        <v>0.8716557218096217</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>2393</v>
@@ -4829,19 +4829,19 @@
         <v>1428894</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1409958</v>
+        <v>1407220</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1449000</v>
+        <v>1448951</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.8869284731234294</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.8751747585580866</v>
+        <v>0.873474943062533</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.8994084629436546</v>
+        <v>0.8993777753801556</v>
       </c>
     </row>
     <row r="15">
